--- a/etc/facility.xlsx
+++ b/etc/facility.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\git\cvs\etc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="facility.csv" sheetId="2" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <author>Capellan, Diana</author>
   </authors>
   <commentList>
-    <comment ref="C154" authorId="0">
+    <comment ref="C154" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3306,7 +3311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3565,6 +3570,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3864,43 +3872,43 @@
       <selection pane="topRight" activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="29" customWidth="1"/>
-    <col min="3" max="3" width="59.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="14" width="12.1640625" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="13" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.1640625" customWidth="1"/>
-    <col min="20" max="20" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
     <col min="21" max="21" width="17" style="29" customWidth="1"/>
-    <col min="22" max="25" width="16.5" customWidth="1"/>
+    <col min="22" max="25" width="16.42578125" customWidth="1"/>
     <col min="26" max="30" width="25" customWidth="1"/>
     <col min="31" max="31" width="45" customWidth="1"/>
-    <col min="32" max="32" width="73.83203125" customWidth="1"/>
+    <col min="32" max="32" width="73.85546875" customWidth="1"/>
     <col min="33" max="33" width="23" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="14.5" customWidth="1"/>
-    <col min="48" max="48" width="18.5" customWidth="1"/>
-    <col min="49" max="49" width="69.33203125" customWidth="1"/>
+    <col min="46" max="47" width="14.42578125" customWidth="1"/>
+    <col min="48" max="48" width="18.42578125" customWidth="1"/>
+    <col min="49" max="49" width="69.28515625" customWidth="1"/>
     <col min="50" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="14.5" customWidth="1"/>
-    <col min="52" max="52" width="15.83203125" customWidth="1"/>
-    <col min="53" max="53" width="16.6640625" customWidth="1"/>
-    <col min="54" max="54" width="44.5" customWidth="1"/>
+    <col min="51" max="51" width="14.42578125" customWidth="1"/>
+    <col min="52" max="52" width="15.85546875" customWidth="1"/>
+    <col min="53" max="53" width="16.7109375" customWidth="1"/>
+    <col min="54" max="54" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="5" customFormat="1" ht="47.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:54" s="5" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4061,7 +4069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="6" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:54" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
@@ -4177,7 +4185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="11" customFormat="1">
+    <row r="3" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="11" customFormat="1">
+    <row r="4" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="11" customFormat="1" ht="53.25" customHeight="1">
+    <row r="5" spans="1:54" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="11" customFormat="1">
+    <row r="6" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -4619,7 +4627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="7" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>84</v>
       </c>
@@ -4674,7 +4682,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="8" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>84</v>
       </c>
@@ -4729,7 +4737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="11" customFormat="1">
+    <row r="9" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>84</v>
       </c>
@@ -4787,7 +4795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:54" s="11" customFormat="1">
+    <row r="10" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>84</v>
       </c>
@@ -4842,7 +4850,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="11" customFormat="1">
+    <row r="11" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>84</v>
       </c>
@@ -4909,7 +4917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="12" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>84</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:54" s="11" customFormat="1">
+    <row r="13" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>84</v>
       </c>
@@ -5025,7 +5033,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="11" customFormat="1">
+    <row r="14" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>84</v>
       </c>
@@ -5080,7 +5088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="11" customFormat="1">
+    <row r="15" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>84</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="11" customFormat="1">
+    <row r="16" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>84</v>
       </c>
@@ -5192,7 +5200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="17" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>84</v>
       </c>
@@ -5251,7 +5259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:54" s="11" customFormat="1">
+    <row r="18" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>84</v>
       </c>
@@ -5311,7 +5319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:54" s="11" customFormat="1">
+    <row r="19" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>84</v>
       </c>
@@ -5369,7 +5377,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:54" s="11" customFormat="1">
+    <row r="20" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>136</v>
       </c>
@@ -5467,7 +5475,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:54" s="11" customFormat="1">
+    <row r="21" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>144</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:54" s="11" customFormat="1">
+    <row r="22" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>153</v>
       </c>
@@ -5657,7 +5665,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:54" s="11" customFormat="1" ht="56">
+    <row r="23" spans="1:54" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>157</v>
       </c>
@@ -5783,7 +5791,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:54" s="11" customFormat="1">
+    <row r="24" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>157</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:54" s="11" customFormat="1" ht="56">
+    <row r="25" spans="1:54" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>165</v>
       </c>
@@ -5997,7 +6005,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:54" s="11" customFormat="1">
+    <row r="26" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>173</v>
       </c>
@@ -6112,7 +6120,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:54" s="11" customFormat="1" ht="105" customHeight="1">
+    <row r="27" spans="1:54" s="11" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>177</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:54" s="11" customFormat="1">
+    <row r="28" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>177</v>
       </c>
@@ -6347,7 +6355,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:54" s="11" customFormat="1">
+    <row r="29" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>187</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:54" s="19" customFormat="1" ht="28">
+    <row r="30" spans="1:54" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>193</v>
       </c>
@@ -6554,7 +6562,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:54" s="11" customFormat="1">
+    <row r="31" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>198</v>
       </c>
@@ -6614,7 +6622,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:54" s="11" customFormat="1">
+    <row r="32" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>202</v>
       </c>
@@ -6757,7 +6765,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="33" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>202</v>
       </c>
@@ -6903,7 +6911,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:54" s="11" customFormat="1" ht="75" customHeight="1">
+    <row r="34" spans="1:54" s="11" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>202</v>
       </c>
@@ -7043,7 +7051,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:54" s="11" customFormat="1">
+    <row r="35" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>202</v>
       </c>
@@ -7183,7 +7191,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:54" s="11" customFormat="1">
+    <row r="36" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>202</v>
       </c>
@@ -7323,7 +7331,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="37" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>202</v>
       </c>
@@ -7466,7 +7474,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:54" s="11" customFormat="1">
+    <row r="38" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>232</v>
       </c>
@@ -7579,7 +7587,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:54" s="11" customFormat="1" ht="42">
+    <row r="39" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>238</v>
       </c>
@@ -7679,7 +7687,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:54" s="11" customFormat="1" ht="60" customHeight="1">
+    <row r="40" spans="1:54" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>238</v>
       </c>
@@ -7777,7 +7785,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:54" s="11" customFormat="1">
+    <row r="41" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>246</v>
       </c>
@@ -7829,7 +7837,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:54" s="11" customFormat="1">
+    <row r="42" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>246</v>
       </c>
@@ -7881,7 +7889,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:54" s="11" customFormat="1">
+    <row r="43" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>246</v>
       </c>
@@ -7931,7 +7939,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:54" s="11" customFormat="1">
+    <row r="44" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>246</v>
       </c>
@@ -7983,7 +7991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:54" s="11" customFormat="1">
+    <row r="45" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>246</v>
       </c>
@@ -8033,7 +8041,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:54" s="11" customFormat="1">
+    <row r="46" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>246</v>
       </c>
@@ -8085,7 +8093,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:54" s="11" customFormat="1">
+    <row r="47" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>246</v>
       </c>
@@ -8137,7 +8145,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:54" s="11" customFormat="1">
+    <row r="48" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>246</v>
       </c>
@@ -8187,7 +8195,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:54" s="11" customFormat="1">
+    <row r="49" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>246</v>
       </c>
@@ -8237,7 +8245,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:54" s="11" customFormat="1">
+    <row r="50" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>246</v>
       </c>
@@ -8287,7 +8295,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:54" s="11" customFormat="1">
+    <row r="51" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>246</v>
       </c>
@@ -8339,7 +8347,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:54" s="11" customFormat="1" ht="45" customHeight="1">
+    <row r="52" spans="1:54" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>246</v>
       </c>
@@ -8400,7 +8408,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:54" s="11" customFormat="1">
+    <row r="53" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>246</v>
       </c>
@@ -8461,7 +8469,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:54" s="11" customFormat="1">
+    <row r="54" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>246</v>
       </c>
@@ -8522,7 +8530,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:54" s="11" customFormat="1">
+    <row r="55" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>246</v>
       </c>
@@ -8586,7 +8594,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:54" s="11" customFormat="1">
+    <row r="56" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>246</v>
       </c>
@@ -8650,7 +8658,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:54" s="11" customFormat="1">
+    <row r="57" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>246</v>
       </c>
@@ -8714,7 +8722,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:54" s="11" customFormat="1">
+    <row r="58" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>246</v>
       </c>
@@ -8775,7 +8783,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:54" s="11" customFormat="1">
+    <row r="59" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>246</v>
       </c>
@@ -8839,7 +8847,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="60" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>302</v>
       </c>
@@ -8964,7 +8972,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:54" s="11" customFormat="1" ht="56">
+    <row r="61" spans="1:54" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>306</v>
       </c>
@@ -9086,7 +9094,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:54" s="11" customFormat="1" ht="56">
+    <row r="62" spans="1:54" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>306</v>
       </c>
@@ -9187,7 +9195,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:54" s="11" customFormat="1" ht="56">
+    <row r="63" spans="1:54" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>306</v>
       </c>
@@ -9286,7 +9294,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:54" s="11" customFormat="1" ht="56">
+    <row r="64" spans="1:54" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>306</v>
       </c>
@@ -9387,7 +9395,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="65" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>326</v>
       </c>
@@ -9492,7 +9500,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:54" s="11" customFormat="1">
+    <row r="66" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>332</v>
       </c>
@@ -9592,7 +9600,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:54" s="11" customFormat="1" ht="42">
+    <row r="67" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>337</v>
       </c>
@@ -9699,7 +9707,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:54" s="11" customFormat="1">
+    <row r="68" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>343</v>
       </c>
@@ -9803,7 +9811,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:54" s="11" customFormat="1" ht="42">
+    <row r="69" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>350</v>
       </c>
@@ -9905,7 +9913,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="1:54" s="11" customFormat="1">
+    <row r="70" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>359</v>
       </c>
@@ -10014,7 +10022,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="71" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>366</v>
       </c>
@@ -10116,7 +10124,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="72" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>372</v>
       </c>
@@ -10211,7 +10219,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:54" s="11" customFormat="1">
+    <row r="73" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>377</v>
       </c>
@@ -10309,7 +10317,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="74" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="74" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>383</v>
       </c>
@@ -10403,7 +10411,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="75" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="75" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>383</v>
       </c>
@@ -10494,7 +10502,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="76" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>390</v>
       </c>
@@ -10611,7 +10619,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="77" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="77" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>390</v>
       </c>
@@ -10728,7 +10736,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="78" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="78" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>397</v>
       </c>
@@ -10796,7 +10804,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="79" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>397</v>
       </c>
@@ -10873,7 +10881,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="80" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>397</v>
       </c>
@@ -10962,7 +10970,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="81" spans="1:54" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>397</v>
       </c>
@@ -11042,7 +11050,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:54" s="11" customFormat="1">
+    <row r="82" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>418</v>
       </c>
@@ -11151,7 +11159,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="83" spans="1:54" s="30" customFormat="1" ht="28">
+    <row r="83" spans="1:54" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>425</v>
       </c>
@@ -11264,7 +11272,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:54" s="11" customFormat="1" ht="28">
+    <row r="84" spans="1:54" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>425</v>
       </c>
@@ -11347,7 +11355,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="85" spans="1:54" s="11" customFormat="1">
+    <row r="85" spans="1:54" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>425</v>
       </c>
@@ -11421,7 +11429,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="86" spans="1:54" s="12" customFormat="1">
+    <row r="86" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>425</v>
       </c>
@@ -11522,7 +11530,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="87" spans="1:54" s="12" customFormat="1">
+    <row r="87" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>425</v>
       </c>
@@ -11621,7 +11629,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:54" s="12" customFormat="1">
+    <row r="88" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>425</v>
       </c>
@@ -11722,7 +11730,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="89" spans="1:54" s="12" customFormat="1">
+    <row r="89" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>447</v>
       </c>
@@ -11804,7 +11812,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="1:54" s="12" customFormat="1">
+    <row r="90" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>452</v>
       </c>
@@ -11890,7 +11898,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="91" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="91" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>459</v>
       </c>
@@ -12034,7 +12042,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="92" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="92" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>467</v>
       </c>
@@ -12136,7 +12144,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="93" spans="1:54" s="12" customFormat="1">
+    <row r="93" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>474</v>
       </c>
@@ -12244,7 +12252,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="94" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="94" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>479</v>
       </c>
@@ -12346,7 +12354,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="95" spans="1:54" s="12" customFormat="1">
+    <row r="95" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>486</v>
       </c>
@@ -12490,7 +12498,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="96" spans="1:54" s="12" customFormat="1">
+    <row r="96" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>486</v>
       </c>
@@ -12634,7 +12642,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="97" spans="1:54" s="12" customFormat="1">
+    <row r="97" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>486</v>
       </c>
@@ -12781,7 +12789,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="98" spans="1:54" s="12" customFormat="1">
+    <row r="98" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>486</v>
       </c>
@@ -12925,7 +12933,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="99" spans="1:54" s="12" customFormat="1">
+    <row r="99" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>486</v>
       </c>
@@ -13069,7 +13077,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="1:54" s="12" customFormat="1">
+    <row r="100" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>486</v>
       </c>
@@ -13213,7 +13221,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="101" spans="1:54" s="12" customFormat="1">
+    <row r="101" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>509</v>
       </c>
@@ -13306,7 +13314,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="102" spans="1:54" s="12" customFormat="1">
+    <row r="102" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>509</v>
       </c>
@@ -13395,7 +13403,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="103" spans="1:54" s="12" customFormat="1">
+    <row r="103" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>509</v>
       </c>
@@ -13486,7 +13494,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="104" spans="1:54" s="12" customFormat="1">
+    <row r="104" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>509</v>
       </c>
@@ -13577,7 +13585,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="105" spans="1:54" s="12" customFormat="1">
+    <row r="105" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>509</v>
       </c>
@@ -13668,7 +13676,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="106" spans="1:54" s="12" customFormat="1">
+    <row r="106" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>509</v>
       </c>
@@ -13759,7 +13767,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="107" spans="1:54" s="12" customFormat="1">
+    <row r="107" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>524</v>
       </c>
@@ -13825,7 +13833,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="108" spans="1:54" s="12" customFormat="1">
+    <row r="108" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>530</v>
       </c>
@@ -13897,7 +13905,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="109" spans="1:54" s="12" customFormat="1">
+    <row r="109" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>537</v>
       </c>
@@ -14026,7 +14034,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:54" s="12" customFormat="1">
+    <row r="110" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>541</v>
       </c>
@@ -14096,7 +14104,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="111" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="111" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>547</v>
       </c>
@@ -14231,7 +14239,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="112" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="112" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>547</v>
       </c>
@@ -14360,7 +14368,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="113" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="113" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>547</v>
       </c>
@@ -14487,7 +14495,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="114" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="114" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>547</v>
       </c>
@@ -14614,7 +14622,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="115" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="115" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>547</v>
       </c>
@@ -14741,7 +14749,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="116" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="116" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>547</v>
       </c>
@@ -14878,7 +14886,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="117" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="117" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>571</v>
       </c>
@@ -14956,7 +14964,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="118" spans="1:54" s="12" customFormat="1">
+    <row r="118" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>577</v>
       </c>
@@ -15031,7 +15039,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="119" spans="1:54" s="12" customFormat="1">
+    <row r="119" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>583</v>
       </c>
@@ -15112,7 +15120,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="120" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="120" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>589</v>
       </c>
@@ -15189,7 +15197,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="121" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="121" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>595</v>
       </c>
@@ -15279,7 +15287,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="122" spans="1:54" s="12" customFormat="1">
+    <row r="122" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>595</v>
       </c>
@@ -15388,7 +15396,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="123" spans="1:54" s="12" customFormat="1">
+    <row r="123" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>595</v>
       </c>
@@ -15494,7 +15502,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="124" spans="1:54" s="12" customFormat="1">
+    <row r="124" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>595</v>
       </c>
@@ -15597,7 +15605,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="125" spans="1:54" s="12" customFormat="1">
+    <row r="125" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>595</v>
       </c>
@@ -15700,7 +15708,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="126" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="126" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>595</v>
       </c>
@@ -15771,7 +15779,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="127" spans="1:54" s="12" customFormat="1">
+    <row r="127" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>595</v>
       </c>
@@ -15838,7 +15846,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="128" spans="1:54" s="12" customFormat="1">
+    <row r="128" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>619</v>
       </c>
@@ -15986,7 +15994,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="129" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="129" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>623</v>
       </c>
@@ -16075,7 +16083,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="130" spans="1:54" s="12" customFormat="1">
+    <row r="130" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>630</v>
       </c>
@@ -16205,7 +16213,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="131" spans="1:54" s="12" customFormat="1">
+    <row r="131" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>630</v>
       </c>
@@ -16329,7 +16337,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="132" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="132" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>639</v>
       </c>
@@ -16457,7 +16465,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="133" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>639</v>
       </c>
@@ -16587,7 +16595,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="134" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>639</v>
       </c>
@@ -16717,7 +16725,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="135" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>639</v>
       </c>
@@ -16847,7 +16855,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="136" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="136" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>639</v>
       </c>
@@ -16975,7 +16983,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="137" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>639</v>
       </c>
@@ -17103,7 +17111,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="138" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="138" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>639</v>
       </c>
@@ -17231,7 +17239,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="139" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>639</v>
       </c>
@@ -17359,7 +17367,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="140" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="140" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>639</v>
       </c>
@@ -17487,7 +17495,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="141" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="141" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>639</v>
       </c>
@@ -17597,7 +17605,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="142" spans="1:54" s="12" customFormat="1">
+    <row r="142" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>673</v>
       </c>
@@ -17726,7 +17734,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="143" spans="1:54" s="12" customFormat="1">
+    <row r="143" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>678</v>
       </c>
@@ -17849,7 +17857,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="144" spans="1:54" s="12" customFormat="1">
+    <row r="144" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>678</v>
       </c>
@@ -17972,7 +17980,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="145" spans="1:54" s="12" customFormat="1">
+    <row r="145" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>678</v>
       </c>
@@ -18095,7 +18103,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="146" spans="1:54" s="12" customFormat="1">
+    <row r="146" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>678</v>
       </c>
@@ -18218,7 +18226,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="147" spans="1:54" s="12" customFormat="1">
+    <row r="147" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>678</v>
       </c>
@@ -18341,7 +18349,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="148" spans="1:54" s="12" customFormat="1">
+    <row r="148" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>678</v>
       </c>
@@ -18464,7 +18472,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="149" spans="1:54" s="12" customFormat="1">
+    <row r="149" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>678</v>
       </c>
@@ -18587,7 +18595,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="150" spans="1:54" s="12" customFormat="1">
+    <row r="150" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>678</v>
       </c>
@@ -18710,7 +18718,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="151" spans="1:54" s="12" customFormat="1">
+    <row r="151" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>678</v>
       </c>
@@ -18833,7 +18841,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="152" spans="1:54" s="12" customFormat="1">
+    <row r="152" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>678</v>
       </c>
@@ -18955,7 +18963,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="153" spans="1:54" s="12" customFormat="1">
+    <row r="153" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>678</v>
       </c>
@@ -19077,7 +19085,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="154" spans="1:54" s="12" customFormat="1">
+    <row r="154" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>678</v>
       </c>
@@ -19199,7 +19207,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="155" spans="1:54" s="12" customFormat="1">
+    <row r="155" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>678</v>
       </c>
@@ -19321,7 +19329,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="156" spans="1:54" s="12" customFormat="1">
+    <row r="156" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>678</v>
       </c>
@@ -19443,7 +19451,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="157" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="157" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>678</v>
       </c>
@@ -19578,7 +19586,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="158" spans="1:54" s="12" customFormat="1" ht="42">
+    <row r="158" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>678</v>
       </c>
@@ -19701,7 +19709,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="159" spans="1:54" s="12" customFormat="1" ht="42">
+    <row r="159" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>678</v>
       </c>
@@ -19826,7 +19834,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:54" s="12" customFormat="1" ht="42">
+    <row r="160" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>678</v>
       </c>
@@ -19949,7 +19957,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="161" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>678</v>
       </c>
@@ -20074,7 +20082,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="162" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="162" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>678</v>
       </c>
@@ -20199,7 +20207,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="163" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="163" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>678</v>
       </c>
@@ -20322,7 +20330,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="164" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="164" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>678</v>
       </c>
@@ -20417,7 +20425,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="165" spans="1:54" s="12" customFormat="1">
+    <row r="165" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>678</v>
       </c>
@@ -20522,7 +20530,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="166" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="166" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>678</v>
       </c>
@@ -20645,7 +20653,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="167" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="167" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>678</v>
       </c>
@@ -20766,7 +20774,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="168" spans="1:54" s="12" customFormat="1" ht="42">
+    <row r="168" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>678</v>
       </c>
@@ -20887,7 +20895,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="169" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="169" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>678</v>
       </c>
@@ -20980,7 +20988,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="170" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="170" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>678</v>
       </c>
@@ -21073,7 +21081,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="171" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="171" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>678</v>
       </c>
@@ -21166,7 +21174,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="172" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="172" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>678</v>
       </c>
@@ -21259,7 +21267,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="173" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="173" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>678</v>
       </c>
@@ -21352,7 +21360,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="174" spans="1:54" s="12" customFormat="1">
+    <row r="174" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>678</v>
       </c>
@@ -21465,7 +21473,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="175" spans="1:54" s="12" customFormat="1">
+    <row r="175" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>678</v>
       </c>
@@ -21578,7 +21586,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="176" spans="1:54" s="12" customFormat="1">
+    <row r="176" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>678</v>
       </c>
@@ -21691,7 +21699,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="177" spans="1:54" s="12" customFormat="1">
+    <row r="177" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>678</v>
       </c>
@@ -21804,7 +21812,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="178" spans="1:54" s="12" customFormat="1">
+    <row r="178" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>678</v>
       </c>
@@ -21917,7 +21925,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:54" s="12" customFormat="1">
+    <row r="179" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>678</v>
       </c>
@@ -22030,7 +22038,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="180" spans="1:54" s="12" customFormat="1" ht="42">
+    <row r="180" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>678</v>
       </c>
@@ -22153,7 +22161,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="181" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>678</v>
       </c>
@@ -22258,7 +22266,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="182" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="182" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>678</v>
       </c>
@@ -22361,7 +22369,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="183" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="183" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>678</v>
       </c>
@@ -22466,7 +22474,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="184" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="184" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>678</v>
       </c>
@@ -22567,7 +22575,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="185" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="185" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>678</v>
       </c>
@@ -22666,7 +22674,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="186" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="186" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>678</v>
       </c>
@@ -22765,7 +22773,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="187" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="187" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
         <v>678</v>
       </c>
@@ -22864,7 +22872,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="188" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="188" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
         <v>678</v>
       </c>
@@ -22965,7 +22973,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="189" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="189" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>678</v>
       </c>
@@ -23066,7 +23074,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="190" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="190" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>678</v>
       </c>
@@ -23167,7 +23175,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="191" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="191" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>678</v>
       </c>
@@ -23268,7 +23276,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="192" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="192" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>678</v>
       </c>
@@ -23373,7 +23381,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="193" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="193" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>678</v>
       </c>
@@ -23474,7 +23482,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="194" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="194" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
         <v>678</v>
       </c>
@@ -23575,7 +23583,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="195" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="195" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
         <v>678</v>
       </c>
@@ -23676,7 +23684,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="196" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="196" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
         <v>678</v>
       </c>
@@ -23777,7 +23785,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="197" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="197" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>678</v>
       </c>
@@ -23878,7 +23886,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="198" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="198" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
         <v>678</v>
       </c>
@@ -23981,7 +23989,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="199" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="199" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>678</v>
       </c>
@@ -24082,7 +24090,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="200" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="200" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
         <v>678</v>
       </c>
@@ -24183,7 +24191,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="201" spans="1:54" s="12" customFormat="1">
+    <row r="201" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
         <v>678</v>
       </c>
@@ -24284,7 +24292,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="202" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="202" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
         <v>678</v>
       </c>
@@ -24385,7 +24393,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="203" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="203" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>678</v>
       </c>
@@ -24486,7 +24494,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="204" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="204" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
         <v>678</v>
       </c>
@@ -24591,7 +24599,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="205" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="205" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
         <v>678</v>
       </c>
@@ -24694,7 +24702,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="206" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="206" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
         <v>678</v>
       </c>
@@ -24795,7 +24803,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="207" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="207" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
         <v>678</v>
       </c>
@@ -24896,7 +24904,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="208" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="208" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
         <v>678</v>
       </c>
@@ -25003,7 +25011,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="209" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="209" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
         <v>678</v>
       </c>
@@ -25104,7 +25112,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="210" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="210" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
         <v>678</v>
       </c>
@@ -25209,7 +25217,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="211" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="211" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
         <v>678</v>
       </c>
@@ -25312,7 +25320,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="212" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="212" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
         <v>678</v>
       </c>
@@ -25415,7 +25423,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="213" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="213" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>678</v>
       </c>
@@ -25516,7 +25524,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="214" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="214" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
         <v>678</v>
       </c>
@@ -25617,7 +25625,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="215" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="215" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
         <v>678</v>
       </c>
@@ -25720,7 +25728,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="216" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="216" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>678</v>
       </c>
@@ -25827,7 +25835,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="217" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="217" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>678</v>
       </c>
@@ -25930,7 +25938,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="218" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="218" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>678</v>
       </c>
@@ -26035,7 +26043,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="219" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="219" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
         <v>678</v>
       </c>
@@ -26136,7 +26144,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="220" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="220" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>678</v>
       </c>
@@ -26237,7 +26245,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="221" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="221" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>678</v>
       </c>
@@ -26338,7 +26346,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="222" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="222" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
         <v>678</v>
       </c>
@@ -26439,7 +26447,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="223" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="223" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>678</v>
       </c>
@@ -26540,7 +26548,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="224" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="224" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
         <v>678</v>
       </c>
@@ -26641,7 +26649,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="225" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="225" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
         <v>678</v>
       </c>
@@ -26744,7 +26752,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="226" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="226" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
         <v>678</v>
       </c>
@@ -26849,7 +26857,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="227" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="227" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
         <v>678</v>
       </c>
@@ -26936,7 +26944,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="228" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="228" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>678</v>
       </c>
@@ -27021,7 +27029,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="229" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="229" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
         <v>678</v>
       </c>
@@ -27108,7 +27116,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="230" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="230" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>678</v>
       </c>
@@ -27195,7 +27203,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="231" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="231" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>678</v>
       </c>
@@ -27280,7 +27288,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="232" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="232" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
         <v>678</v>
       </c>
@@ -27374,7 +27382,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="233" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="233" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
         <v>678</v>
       </c>
@@ -27461,7 +27469,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="234" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="234" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
         <v>678</v>
       </c>
@@ -27548,7 +27556,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="235" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="235" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
         <v>678</v>
       </c>
@@ -27635,7 +27643,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="236" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="236" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
         <v>678</v>
       </c>
@@ -27747,7 +27755,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="237" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="237" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
         <v>978</v>
       </c>
@@ -27858,7 +27866,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="238" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="238" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
         <v>978</v>
       </c>
@@ -27963,7 +27971,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="239" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="239" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
         <v>978</v>
       </c>
@@ -28080,7 +28088,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="240" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="240" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
         <v>978</v>
       </c>
@@ -28195,7 +28203,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="241" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="241" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
         <v>978</v>
       </c>
@@ -28290,7 +28298,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="242" spans="1:54" s="12" customFormat="1">
+    <row r="242" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
         <v>989</v>
       </c>
@@ -28369,7 +28377,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="243" spans="1:54" s="12" customFormat="1">
+    <row r="243" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
         <v>996</v>
       </c>
@@ -28456,7 +28464,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="244" spans="1:54" s="12" customFormat="1">
+    <row r="244" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
         <v>1001</v>
       </c>
@@ -28556,7 +28564,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="245" spans="1:54" s="12" customFormat="1">
+    <row r="245" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
         <v>1001</v>
       </c>
@@ -28660,7 +28668,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="246" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="246" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="11" t="s">
         <v>1009</v>
       </c>
@@ -28764,7 +28772,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="247" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="247" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>1017</v>
       </c>
@@ -28868,7 +28876,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="248" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="248" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
         <v>1017</v>
       </c>
@@ -28968,7 +28976,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="249" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="249" spans="1:54" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
         <v>1017</v>
       </c>
@@ -29068,7 +29076,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="250" spans="1:54" s="12" customFormat="1">
+    <row r="250" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
         <v>1021</v>
       </c>
@@ -29197,7 +29205,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="251" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="251" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>1025</v>
       </c>
@@ -29267,7 +29275,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="252" spans="1:54" s="12" customFormat="1">
+    <row r="252" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="11" t="s">
         <v>1032</v>
       </c>
@@ -29372,7 +29380,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="253" spans="1:54" s="12" customFormat="1" ht="56">
+    <row r="253" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="11" t="s">
         <v>1037</v>
       </c>
@@ -29472,7 +29480,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="254" spans="1:54" s="12" customFormat="1" ht="56">
+    <row r="254" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
         <v>1037</v>
       </c>
@@ -29572,7 +29580,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="255" spans="1:54" s="12" customFormat="1" ht="56">
+    <row r="255" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
         <v>1037</v>
       </c>
@@ -29674,7 +29682,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="256" spans="1:54" s="12" customFormat="1" ht="56">
+    <row r="256" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
         <v>1037</v>
       </c>
@@ -29774,7 +29782,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="257" spans="1:54" s="12" customFormat="1" ht="56">
+    <row r="257" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="11" t="s">
         <v>1037</v>
       </c>
@@ -29874,7 +29882,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="258" spans="1:54" s="12" customFormat="1" ht="56">
+    <row r="258" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="11" t="s">
         <v>1037</v>
       </c>
@@ -29974,7 +29982,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="259" spans="1:54" s="12" customFormat="1" ht="56">
+    <row r="259" spans="1:54" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="11" t="s">
         <v>1037</v>
       </c>
@@ -30074,7 +30082,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="260" spans="1:54" s="12" customFormat="1">
+    <row r="260" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
         <v>1062</v>
       </c>
@@ -30185,7 +30193,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="261" spans="1:54" s="12" customFormat="1" ht="28">
+    <row r="261" spans="1:54" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="11" t="s">
         <v>1062</v>
       </c>
@@ -30298,7 +30306,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="262" spans="1:54" s="16" customFormat="1" ht="56">
+    <row r="262" spans="1:54" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A262" s="11" t="s">
         <v>1062</v>
       </c>
@@ -30516,7 +30524,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/etc/facility.xlsx
+++ b/etc/facility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20670" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="facility" sheetId="1" r:id="rId1"/>
